--- a/hdfc-bank_CC.xlsx
+++ b/hdfc-bank_CC.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U37"/>
+  <dimension ref="A1:X37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -558,109 +558,142 @@
           <t>Add on card fee</t>
         </is>
       </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Eligibility</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Documents Required</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Limit</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>Best For</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>Joining Fee</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>Renewal Fee</t>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>Welcome Bonus</t>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t>Reward Rates</t>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t>travel</t>
-        </is>
-      </c>
-      <c r="H2" s="1" t="inlineStr">
-        <is>
-          <t>Domestic Lounge Access</t>
-        </is>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t>Insurance Benefits</t>
-        </is>
-      </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
-          <t>Movie &amp; Dining</t>
-        </is>
-      </c>
-      <c r="K2" s="1" t="inlineStr">
-        <is>
-          <t>Reward redemption</t>
-        </is>
-      </c>
-      <c r="L2" s="1" t="inlineStr">
-        <is>
-          <t>Golf</t>
-        </is>
-      </c>
-      <c r="M2" s="1" t="inlineStr">
-        <is>
-          <t>International lounge access</t>
-        </is>
-      </c>
-      <c r="N2" s="1" t="inlineStr">
-        <is>
-          <t>Zero Liability Protection</t>
-        </is>
-      </c>
-      <c r="O2" s="1" t="inlineStr">
-        <is>
-          <t>Spend based waiver</t>
-        </is>
-      </c>
-      <c r="P2" s="1" t="inlineStr">
-        <is>
-          <t>Reward redemption fee</t>
-        </is>
-      </c>
-      <c r="Q2" s="1" t="inlineStr">
-        <is>
-          <t>Foreign currency markup</t>
-        </is>
-      </c>
-      <c r="R2" s="1" t="inlineStr">
-        <is>
-          <t>Interest Rates</t>
-        </is>
-      </c>
-      <c r="S2" s="1" t="inlineStr">
-        <is>
-          <t>Fuel Surcharge</t>
-        </is>
-      </c>
-      <c r="T2" s="1" t="inlineStr">
-        <is>
-          <t>Cash advance charge</t>
-        </is>
-      </c>
-      <c r="U2" s="1" t="inlineStr">
-        <is>
-          <t>Add on card fee</t>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Travel | Dining</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Rs. 12,500 + applicable taxes</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Rs. 12,500 + applicable taxes</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Welcome bonus of 12,500 Reward Points and complimentary Club Marriott membership for the first year.</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5 Reward Points on every retail spend of Rs. 150,  reward rate of up to 3.3%</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Complimentary Priority Pass membership with unlimited free access to airport lounges and with Infinia Credit Card Lounge Access Program along with complimentary Club Marriott membership for 1 year, complimentary 2 + 1 night stay at several premium ITC hotels</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Unlimited complimentary access to domestic lounges with the Priority Pass membership for primary as well as add-on Infinia cardholders, unlimited free domestic lounge visits per quarter with Visa/MasterCard domestic lounge program</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Insurance cover worth Rs. 3 crore against accidental air death (applicable only in case of death due to an air accident), a cover worth Rs. 50 lakh against medical emergencies during international air travel, Credit shield cover worth Rs. 9 lakh (the outstanding amount on the card is covered in case of accidental death or permanent disability of the primary cardholder).</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Exclusive dining privileges with the Good Food Trail Program and free Club Marriott membership, 1 + 1 complimentary buffet at ITC hotels.</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>RPs can be redeemed for flight and hotel bookings via SmartBuy (1 RP = Re. 1), Airmiles through net banking (1 RP = 1 Airmile), products and vouchers via net banking or SmartBuy (1 RP = Rs. 0.50), Apple and Tanishq vouchers (1 RP = Re. 1) cashback (1 RP = Rs. 0.30)</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Unlimited complimentary golf games at leading golf courses across India and abroad</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Unlimited free access to international lounges across the globe for the primary cardmember and all add-on cardholders.</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>In case the card is lost, if you report the same within 24 hours, you have zero cost liability on any fraudulent transaction made with your credit card. Bank not liable for any fraudulent transaction made prior to the time of reporting.</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Get renewal fee waived by spending Rs. 10 lakh in the previous year.</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Nil</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>2% of the total transaction amount + taxes</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>1.99% per month or 23.8% annualized</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>1% fuel surcharge waiver up to Rs. 1,000 each month</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>NIL (Interests charges applicable)</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>Nil</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>Your age should be above 21 years and below 65 years.
+You should have a stable source of monthly income.
+You should have a very good credit history and an existing relationship with HDFC Bank.</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>Your latest salary slips (for salaried people) or the latest audited ITR (self-employed people).
+Updated address proof (if the address has changed).</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>In general, the HDFC Infinia Metal Edition Credit Card comes with a minimum credit limit of Rs. 8 lakhs. However, it may vary depending on the past payment behavior, credit history, or income of individuals. The card also has the No-Pre set limit feature and to avail of it, you just need to inform the HDFC Infinia customer care and they increase your credit limit temporarily. The Infinia Card is the only HDFC credit card that comes with this unique feature of a No Pre-set credit card that allows you to spend as much as you need.</t>
         </is>
       </c>
     </row>
@@ -668,106 +701,6 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>HDFC Bank Diners Club Black Credit Card</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Travel | Dining</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Rs. 12,500 + applicable taxes</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Rs. 12,500 + applicable taxes</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Welcome bonus of 12,500 Reward Points and complimentary Club Marriott membership for the first year.</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5 Reward Points on every retail spend of Rs. 150,  reward rate of up to 3.3%</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Complimentary Priority Pass membership with unlimited free access to airport lounges and with Infinia Credit Card Lounge Access Program along with complimentary Club Marriott membership for 1 year, complimentary 2 + 1 night stay at several premium ITC hotels</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Unlimited complimentary access to domestic lounges with the Priority Pass membership for primary as well as add-on Infinia cardholders, unlimited free domestic lounge visits per quarter with Visa/MasterCard domestic lounge program</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Insurance cover worth Rs. 3 crore against accidental air death (applicable only in case of death due to an air accident), a cover worth Rs. 50 lakh against medical emergencies during international air travel, Credit shield cover worth Rs. 9 lakh (the outstanding amount on the card is covered in case of accidental death or permanent disability of the primary cardholder).</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Exclusive dining privileges with the Good Food Trail Program and free Club Marriott membership, 1 + 1 complimentary buffet at ITC hotels.</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>RPs can be redeemed for flight and hotel bookings via SmartBuy (1 RP = Re. 1), Airmiles through net banking (1 RP = 1 Airmile), products and vouchers via net banking or SmartBuy (1 RP = Rs. 0.50), Apple and Tanishq vouchers (1 RP = Re. 1) cashback (1 RP = Rs. 0.30)</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>Unlimited complimentary golf games at leading golf courses across India and abroad</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>Unlimited free access to international lounges across the globe for the primary cardmember and all add-on cardholders.</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>In case the card is lost, if you report the same within 24 hours, you have zero cost liability on any fraudulent transaction made with your credit card. Bank not liable for any fraudulent transaction made prior to the time of reporting.</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>Get renewal fee waived by spending Rs. 10 lakh in the previous year.</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>Nil</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>2% of the total transaction amount + taxes</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>1.99% per month or 23.8% annualized</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>1% fuel surcharge waiver up to Rs. 1,000 each month</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>NIL (Interests charges applicable)</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>Nil</t>
         </is>
       </c>
     </row>
